--- a/SignalSync/test documents/DataFilter.xlsx
+++ b/SignalSync/test documents/DataFilter.xlsx
@@ -10,12 +10,36 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>median 3</t>
+  </si>
+  <si>
+    <t>median 5</t>
+  </si>
+  <si>
+    <t>avg 3</t>
+  </si>
+  <si>
+    <t>avg 5</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,6 +90,4766 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>latency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2FD-4F23-B170-9C32065880AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1723963359"/>
+        <c:axId val="1723963775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1723963359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723963775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1723963775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723963359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>median 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2CD-4C78-8AAC-9D63217D5DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1875283743"/>
+        <c:axId val="1875284575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1875283743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875284575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1875284575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875283743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>median 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-401A-AB48-06F1A057533B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1814818527"/>
+        <c:axId val="1814807295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1814818527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814807295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814807295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814818527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>168.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1267-48DA-A65D-745FE2D888FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1723966687"/>
+        <c:axId val="1723967103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1723966687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723967103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1723967103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723966687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>168.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>168.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>168.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B05-4F7F-9397-C18A198B9D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1809402543"/>
+        <c:axId val="1809396303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1809402543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809396303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1809396303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809402543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +5115,1344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>MEDIAN(B2)</f>
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>MEDIAN(B2)</f>
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2)</f>
+        <v>150</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(B2)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>MEDIAN(B2:B3)</f>
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>MEDIAN(B2:B3)</f>
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(B2:B3)</f>
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(B2:B3)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>MEDIAN(B2:B4)</f>
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>MEDIAN(B2:B4)</f>
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(B2:B4)</f>
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(B2:B4)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>MEDIAN(B3:B5)</f>
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>MEDIAN(B2:B5)</f>
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H37" si="0">AVERAGE(B3:B5)</f>
+        <v>156</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(B2:B5)</f>
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F37" si="1">MEDIAN(B4:B6)</f>
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>MEDIAN(B2:B6)</f>
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(B2:B6)</f>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F37" si="2">MEDIAN(B3:B7)</f>
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J37" si="3">AVERAGE(B3:B7)</f>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>149</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>122.66666666666667</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>149.33333333333334</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>148</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>149</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>149</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>148.66666666666666</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>149.33333333333334</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>163</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>156.19999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>172</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>168.33333333333334</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>170</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>170</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>176</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>170</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>170</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>170</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>170</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>170</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>170</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>170</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I33">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>170</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>164</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>170</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>170</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>168.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>